--- a/src/test/java/excelFiles/ShopifyTestData.xlsx
+++ b/src/test/java/excelFiles/ShopifyTestData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_688776/Documents/workspace/seleniumgenc/src/test/java/excelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5992CA06-FB27-CB49-9AE6-E3DEC63CC29A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B278286-7130-9B42-9FCC-84055341DC9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="3060" windowWidth="28040" windowHeight="17440" xr2:uid="{93663D40-426A-FF4B-90C6-B8205707CD86}"/>
+    <workbookView xWindow="2180" yWindow="1900" windowWidth="31760" windowHeight="18180" activeTab="1" xr2:uid="{93663D40-426A-FF4B-90C6-B8205707CD86}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="allFields" sheetId="4" r:id="rId1"/>
+    <sheet name="missingFields" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
   <si>
     <t>First Name</t>
   </si>
@@ -96,9 +97,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>Jason Monroe Jmoney Chennai</t>
-  </si>
-  <si>
     <t>Kim</t>
   </si>
   <si>
@@ -106,13 +104,38 @@
   </si>
   <si>
     <t>UserName can't be blank</t>
+  </si>
+  <si>
+    <t>Passwd can't be blank</t>
+  </si>
+  <si>
+    <t>Firstname can't be blank</t>
+  </si>
+  <si>
+    <t>Lastname can't be blank</t>
+  </si>
+  <si>
+    <t>Kimmie1</t>
+  </si>
+  <si>
+    <t>Kimmie2</t>
+  </si>
+  <si>
+    <t>Kimmie3</t>
+  </si>
+  <si>
+    <t>Jason Monroe JMoney Chennai</t>
+  </si>
+  <si>
+    <t>Lastname can't be blank
+UserName can't be blank</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -123,6 +146,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -148,9 +177,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,11 +496,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A1C129-AF69-4B41-AFA6-2A803F64D704}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C35C8A7-B457-5146-B1AD-62E7ADF487B9}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="210" workbookViewId="0">
-      <selection sqref="A1:H4"/>
+    <sheetView zoomScale="189" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -543,33 +575,165 @@
         <v>19</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>23</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D1551AB-AE16-D147-B9F0-74756DE5335D}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="172" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="22.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>